--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6C8C1-92BB-6D49-A907-7B1AFA6F8206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FC60C-5692-4215-B230-EEEB4E33C5C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List Fabio" sheetId="1" r:id="rId1"/>
@@ -19,29 +19,18 @@
     <sheet name="Task List Dave" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ColumnTitle1">" "</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Task List Dave'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Task List Fabio'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Task List Niels'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Task List Wouter'!$2:$2</definedName>
+    <definedName name="ColumnTitle1">" "</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>TASK</t>
   </si>
@@ -152,6 +141,33 @@
   </si>
   <si>
     <t>kritiek implementeren</t>
+  </si>
+  <si>
+    <t>Mockups en use cases</t>
+  </si>
+  <si>
+    <t>Digitale meeting Fabio</t>
+  </si>
+  <si>
+    <t>project tutors verbeteren</t>
+  </si>
+  <si>
+    <t>TASK LIST SOFTWARE ENGINEERING Groep-10: Dave Saenen: 1954348</t>
+  </si>
+  <si>
+    <t>Project punten presentatie</t>
+  </si>
+  <si>
+    <t>Maken van de presentatie versie 1 (mockups &amp; use cases)</t>
+  </si>
+  <si>
+    <t>Maken van de presentatie versie 1 (mockups, use cases en probleemstelling)</t>
+  </si>
+  <si>
+    <t>Presentaties oefenen</t>
+  </si>
+  <si>
+    <t>Oefenen van de presentaties + eventuele verbetering</t>
   </si>
 </sst>
 </file>
@@ -372,20 +388,107 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="6" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Date" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Done" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Komma [0]" xfId="4" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="11" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="7" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="10" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Valuta" xfId="5" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Valuta [0]" xfId="6" builtinId="7" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -404,93 +507,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -679,8 +695,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="0" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -699,8 +715,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="9" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -719,8 +735,8 @@
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="6" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -739,8 +755,8 @@
     <tableColumn id="4" xr3:uid="{56B4C51E-0B8E-304C-89EC-F36DDC7218F6}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{49E9A012-34F6-134D-83DD-762339356686}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{BF7252B0-8FCB-B64F-B151-CF8CACBD611D}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="3" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -984,19 +1000,19 @@
   </sheetPr>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.703125" customWidth="1"/>
+    <col min="2" max="2" width="33.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.703125" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
+    <col min="8" max="8" width="40.29296875" customWidth="1"/>
+    <col min="9" max="9" width="29.703125" customWidth="1"/>
+    <col min="10" max="10" width="2.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1333,15 +1349,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.703125" customWidth="1"/>
+    <col min="2" max="2" width="33.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.703125" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
+    <col min="8" max="8" width="40.29296875" customWidth="1"/>
+    <col min="9" max="9" width="29.703125" customWidth="1"/>
+    <col min="10" max="10" width="2.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1394,11 +1410,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1420,11 +1436,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1442,11 +1458,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1511,7 +1527,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1561,15 +1577,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.703125" customWidth="1"/>
+    <col min="2" max="2" width="33.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.703125" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
+    <col min="8" max="8" width="40.29296875" customWidth="1"/>
+    <col min="9" max="9" width="29.703125" customWidth="1"/>
+    <col min="10" max="10" width="2.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1622,11 +1638,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44144</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1648,11 +1664,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44107</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1670,11 +1686,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44124</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1739,7 +1755,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1785,24 +1801,24 @@
   </sheetPr>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.703125" customWidth="1"/>
+    <col min="2" max="2" width="33.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.703125" customWidth="1"/>
+    <col min="7" max="7" width="14.29296875" customWidth="1"/>
+    <col min="8" max="8" width="40.29296875" customWidth="1"/>
+    <col min="9" max="9" width="29.703125" customWidth="1"/>
+    <col min="10" max="10" width="2.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
       <c r="B1" s="10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1839,116 +1855,215 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <f ca="1">TODAY()</f>
-        <v>44135</v>
-      </c>
-      <c r="F3" s="2">
-        <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44120</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44120</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44126</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44126</v>
+      </c>
+      <c r="G4" s="13">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44126</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44128</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44128</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44128</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12">
+        <v>44128</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44128</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>44130</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G8" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44133</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44133</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">TODAY()-30</f>
-        <v>44105</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
-        <f ca="1">TODAY()-23</f>
-        <v>44112</v>
-      </c>
-      <c r="F5" s="2">
-        <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="12">
+        <v>44134</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44137</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
       <c r="B12" s="1"/>
@@ -1966,8 +2081,8 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="B12:F13">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1979,16 +2094,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{275103DB-4B36-354F-A152-921FEA99272A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{B0C57800-60CE-364D-B862-8A8D72DC6AAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{863D0563-08BD-244A-A90F-97D0D984A9BC}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C12:C13" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D12:D13" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
-      <formula1>F3&gt;=E3</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F12:F13" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
+      <formula1>F12&gt;=E12</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G12:G13" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FC60C-5692-4215-B230-EEEB4E33C5C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733DCC3-EF4C-4971-8D96-2075580737F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>TASK</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Mockups en use cases</t>
   </si>
   <si>
-    <t>Digitale meeting Fabio</t>
-  </si>
-  <si>
     <t>project tutors verbeteren</t>
   </si>
   <si>
@@ -168,6 +165,21 @@
   </si>
   <si>
     <t>Oefenen van de presentaties + eventuele verbetering</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Bepalen scope varkenssysteem</t>
+  </si>
+  <si>
+    <t>Bespreking analyse &amp; verdeling taken</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Analyse varkenssysteem -&gt; probleemstelling -&gt; agenda</t>
   </si>
 </sst>
 </file>
@@ -344,7 +356,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -385,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -748,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H14" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1000,8 +1015,8 @@
   </sheetPr>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1410,11 +1425,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1436,11 +1451,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1458,11 +1473,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1532,16 +1547,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G14" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F14" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D14" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C14" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1638,11 +1653,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1664,11 +1679,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1686,11 +1701,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1760,16 +1775,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G14" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F14" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D14" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C14" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1799,10 +1814,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1818,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1856,7 +1871,7 @@
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -1878,12 +1893,12 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -1929,7 +1944,7 @@
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -1970,7 +1985,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1">
@@ -1993,12 +2008,12 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -2016,12 +2031,12 @@
         <v>2</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1">
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -2044,7 +2059,7 @@
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>6</v>
@@ -2062,31 +2077,81 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1">
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44141</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44141</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12">
+        <v>44168</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44168</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44168</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44169</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B12:F13">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list with progress tracker in this worksheet" sqref="A1" xr:uid="{3635869A-1DCE-B04F-8B52-C3D9796453C9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B1" xr:uid="{26311D6B-6AED-784E-AFDA-22BDF71FCD5C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entries" sqref="B2" xr:uid="{DB9FC627-9A5A-A44E-9693-1301D80561AE}"/>
@@ -2094,18 +2159,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{275103DB-4B36-354F-A152-921FEA99272A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{B0C57800-60CE-364D-B862-8A8D72DC6AAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{863D0563-08BD-244A-A90F-97D0D984A9BC}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C12:C13" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
-      <formula1>"Low, Normal, High"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D12:D13" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
-      <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F12:F13" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
-      <formula1>F12&gt;=E12</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G12:G13" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733DCC3-EF4C-4971-8D96-2075580737F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB64178-CFCD-436B-BC4A-E243D10A56AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t>TASK</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Analyse varkenssysteem -&gt; probleemstelling -&gt; agenda</t>
+  </si>
+  <si>
+    <t>Feedback verwerken</t>
+  </si>
+  <si>
+    <t>Nieuwe probleemstelling en berekening van de nieuwe effort</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -401,6 +407,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Date" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -416,7 +425,7 @@
     <cellStyle name="Valuta" xfId="5" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Valuta [0]" xfId="6" builtinId="7" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -437,13 +446,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -675,20 +677,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To-do list" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
     <tableStyle name="To-do list" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -710,8 +712,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -730,8 +732,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -750,8 +752,8 @@
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -763,7 +765,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H15" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1314,7 +1316,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13:F13">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1425,11 +1427,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44168</v>
+        <v>44173</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44175</v>
+        <v>44180</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1451,11 +1453,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44173</v>
+        <v>44178</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1473,11 +1475,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44145</v>
+        <v>44150</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44155</v>
+        <v>44160</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1542,21 +1544,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G14" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G15" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F14" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F15" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D14" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D15" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C14" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C15" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1653,11 +1655,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44168</v>
+        <v>44173</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44175</v>
+        <v>44180</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1679,11 +1681,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44173</v>
+        <v>44178</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1701,11 +1703,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44145</v>
+        <v>44150</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44155</v>
+        <v>44160</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1770,21 +1772,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G14" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G15" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F14" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F15" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D14" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D15" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C14" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C15" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1814,10 +1816,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1893,7 +1895,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2147,6 +2149,29 @@
       </c>
       <c r="H14" s="15" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44173</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB64178-CFCD-436B-BC4A-E243D10A56AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363DB48-AAB1-4126-9621-E17B002D8B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>TASK</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Nieuwe probleemstelling en berekening van de nieuwe effort</t>
+  </si>
+  <si>
+    <t>Analyse varkenssysteem -&gt; Systeemfuncties --&gt; domeinmodel --&gt;Systeem sequentie diagram</t>
+  </si>
+  <si>
+    <t>Systeem sequentie diagram (SSD)</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -406,9 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -765,7 +768,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H17" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1427,11 +1430,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44173</v>
+        <v>44184</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44180</v>
+        <v>44191</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1453,11 +1456,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44143</v>
+        <v>44154</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44178</v>
+        <v>44189</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44150</v>
+        <v>44161</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44160</v>
+        <v>44171</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1549,16 +1552,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G15" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F15" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D15" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C15" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1655,11 +1658,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44173</v>
+        <v>44184</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44180</v>
+        <v>44191</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1681,11 +1684,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44143</v>
+        <v>44154</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44178</v>
+        <v>44189</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1703,11 +1706,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44150</v>
+        <v>44161</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44160</v>
+        <v>44171</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1777,16 +1780,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G15" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F15" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D15" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C15" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1816,10 +1819,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1895,7 +1898,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2064,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
@@ -2156,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -2167,12 +2170,56 @@
       <c r="F15" s="12">
         <v>44173</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44184</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44184</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44184</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44186</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363DB48-AAB1-4126-9621-E17B002D8B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8151E-096B-48C8-ABB5-5C6BF28874B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>TASK</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Systeem sequentie diagram (SSD)</t>
+  </si>
+  <si>
+    <t>Use case diagram</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -411,6 +417,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -768,7 +777,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H19" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1430,11 +1439,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1456,11 +1465,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1552,16 +1561,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G19" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F19" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D19" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C19" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1658,11 +1667,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1684,11 +1693,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1706,11 +1715,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1780,16 +1789,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G19" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F19" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D19" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C19" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1819,10 +1828,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1898,7 +1907,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2220,6 +2229,50 @@
         <v>2</v>
       </c>
       <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44185</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44186</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44185</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44186</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8151E-096B-48C8-ABB5-5C6BF28874B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t>TASK</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Verbetering analyse + verdeling contracten.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -421,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -777,7 +783,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H20" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1439,11 +1445,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1465,11 +1471,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1487,11 +1493,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1561,16 +1567,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G19" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G20" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F19" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F20" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D19" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D20" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C19" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C20" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1667,11 +1673,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1693,11 +1699,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1715,11 +1721,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1789,16 +1795,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G19" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G20" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F19" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F20" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D19" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D20" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C19" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C20" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1828,10 +1834,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I19"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2273,6 +2279,29 @@
         <v>3</v>
       </c>
       <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44185</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44185</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Desktop\school\software engineering\project\inf-seng-20-21-team-projectgroep-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\OneDrive\Bureaublad\School\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3B70C1B-2655-4F79-B0BD-18A671C98D18}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
   <si>
     <t>TASK</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Verbetering analyse + verdeling contracten.</t>
+  </si>
+  <si>
+    <t>Verbetering analyse (SSD + use case diagram + use cases)</t>
+  </si>
+  <si>
+    <t>Verbetering analyse</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -424,9 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -783,7 +786,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H22" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1445,11 +1448,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44186</v>
+        <v>44256</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44193</v>
+        <v>44263</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1471,11 +1474,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44156</v>
+        <v>44226</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44191</v>
+        <v>44261</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1493,11 +1496,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44163</v>
+        <v>44233</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44173</v>
+        <v>44243</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1673,11 +1676,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44186</v>
+        <v>44256</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44193</v>
+        <v>44263</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1699,11 +1702,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44156</v>
+        <v>44226</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44191</v>
+        <v>44261</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1721,11 +1724,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44163</v>
+        <v>44233</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44173</v>
+        <v>44243</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1834,10 +1837,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1913,7 +1916,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2296,11 +2299,57 @@
       <c r="F20" s="12">
         <v>44185</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>2</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12">
+        <v>44255</v>
+      </c>
+      <c r="F21" s="12">
+        <v>44255</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44256</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44262</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\OneDrive\Bureaublad\School\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3B70C1B-2655-4F79-B0BD-18A671C98D18}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{42DCFF8C-65A0-4717-BCDE-C04A8329F923}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>TASK</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Verbetering analyse</t>
+  </si>
+  <si>
+    <t>Backend setup</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -430,6 +436,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -786,7 +798,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H23" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1837,10 +1849,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2351,6 +2363,27 @@
       <c r="H22" s="15" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="23" spans="2:8" ht="30" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="17">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Logging_Dave.xlsx
+++ b/Logging_Dave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\OneDrive\Bureaublad\School\inf-seng-20-21-team-projectgroep-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Bureaublad\School\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{260F286A-6E82-435E-8121-0EA1E1099ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{42DCFF8C-65A0-4717-BCDE-C04A8329F923}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C5DCA-A921-4D30-B348-511EB6CB3060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>TASK</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Klassendiagram</t>
+  </si>
+  <si>
+    <t>Backend Taken</t>
+  </si>
+  <si>
+    <t>Frontend Agenda</t>
+  </si>
+  <si>
+    <t>agenda gemaakt met functies: voltooien van taken, toevoegen van taken, vewijderen van taken en archiveren van taken</t>
+  </si>
+  <si>
+    <t>Demo filmpje maken</t>
+  </si>
+  <si>
+    <t>verbetering analyse</t>
+  </si>
+  <si>
+    <t>use case diagram + een SSD voor alle use cases</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -436,9 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
@@ -798,7 +816,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F13DDBC-8C6A-574F-86EC-D52404C125CF}" name="ToDoList34" displayName="ToDoList34" ref="B2:H29" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B81333E-E52C-EF45-97A2-E5F4DC942BBB}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{929906FE-58E3-4C48-A560-6D5445D243DC}" name="PRIORITY "/>
@@ -1460,11 +1478,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44256</v>
+        <v>44319</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44263</v>
+        <v>44326</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1486,11 +1504,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44226</v>
+        <v>44289</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44261</v>
+        <v>44324</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44233</v>
+        <v>44296</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44243</v>
+        <v>44306</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1688,11 +1706,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44256</v>
+        <v>44319</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44263</v>
+        <v>44326</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1714,11 +1732,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44226</v>
+        <v>44289</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44261</v>
+        <v>44324</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1736,11 +1754,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44233</v>
+        <v>44296</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44243</v>
+        <v>44306</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1849,10 +1867,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="30" customHeight="1"/>
@@ -1928,7 +1946,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList34[HOURS WORKED])</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -2374,16 +2392,148 @@
       <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>2</v>
       </c>
       <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="30" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44260</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44267</v>
+      </c>
+      <c r="G24" s="13">
+        <v>2</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44279</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44279</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" ht="30" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12">
+        <v>44279</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44290</v>
+      </c>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="30" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12">
+        <v>44290</v>
+      </c>
+      <c r="F27" s="12">
+        <v>44301</v>
+      </c>
+      <c r="G27" s="13">
+        <v>14</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44301</v>
+      </c>
+      <c r="F28" s="12">
+        <v>44301</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:8" ht="30" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="12">
+        <v>44310</v>
+      </c>
+      <c r="F29" s="12">
+        <v>44318</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
